--- a/Assets/Configs/RawTable/LoadingStep.xlsx
+++ b/Assets/Configs/RawTable/LoadingStep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="9287"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingStep" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>StepID</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>PrepareTime</t>
+  </si>
+  <si>
+    <t>RunningTime</t>
+  </si>
+  <si>
+    <t>FinishTime</t>
   </si>
   <si>
     <t>准备</t>
@@ -734,12 +743,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="StepID"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="PrepareTime"/>
+    <tableColumn id="5" name="RunningTime"/>
+    <tableColumn id="6" name="FinishTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,20 +1015,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="29.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,71 +1040,134 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/LoadingStep.xlsx
+++ b/Assets/Configs/RawTable/LoadingStep.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingStep" sheetId="1" r:id="rId1"/>
+    <sheet name="LoadingTips" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>StepID</t>
   </si>
@@ -59,6 +60,39 @@
   </si>
   <si>
     <t>正在进入场景</t>
+  </si>
+  <si>
+    <t>TipID</t>
+  </si>
+  <si>
+    <t>测试加载中Tip1</t>
+  </si>
+  <si>
+    <t>测试加载中Tip2</t>
+  </si>
+  <si>
+    <t>测试加载中Tip3</t>
+  </si>
+  <si>
+    <t>测试加载中Tip4</t>
+  </si>
+  <si>
+    <t>测试加载中Tip5</t>
+  </si>
+  <si>
+    <t>测试加载中Tip6</t>
+  </si>
+  <si>
+    <t>测试加载中Tip7</t>
+  </si>
+  <si>
+    <t>测试加载中Tip8</t>
+  </si>
+  <si>
+    <t>测试加载中Tip9</t>
+  </si>
+  <si>
+    <t>测试加载中Tip10</t>
   </si>
 </sst>
 </file>
@@ -752,6 +786,17 @@
     <tableColumn id="4" name="PrepareTime"/>
     <tableColumn id="5" name="RunningTime"/>
     <tableColumn id="6" name="FinishTime"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="TipID"/>
+    <tableColumn id="2" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1017,8 +1062,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1177,4 +1222,115 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Assets/Configs/RawTable/LoadingStep.xlsx
+++ b/Assets/Configs/RawTable/LoadingStep.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B6BBB-FF82-495D-90E8-42E3BA8E0D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingStep" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>StepID</t>
   </si>
@@ -103,22 +97,22 @@
   </si>
   <si>
     <t>PicID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清明上河图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋 · 清明上河图</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,36 +121,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,9 +467,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -174,50 +719,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
@@ -226,45 +795,42 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="StepID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PrepareTime"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="RunningTime"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FinishTime"/>
+    <tableColumn id="1" name="StepID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="PrepareTime"/>
+    <tableColumn id="5" name="RunningTime"/>
+    <tableColumn id="6" name="FinishTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TipID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
+    <tableColumn id="1" name="TipID"/>
+    <tableColumn id="2" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E5509FC-E1C1-4707-9362-6B19A704BFAC}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B4" xr:uid="{2E5509FC-E1C1-4707-9362-6B19A704BFAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0DD03159-23F0-418E-A6B7-7B0ACCC0DB30}" name="PicID"/>
-    <tableColumn id="2" xr3:uid="{9DF492C9-8D28-4332-B03A-51B881754977}" name="Name" dataDxfId="1"/>
+    <tableColumn id="1" name="PicID"/>
+    <tableColumn id="2" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,28 +1088,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="29.6666666666667" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -583,7 +1149,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -603,7 +1169,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -623,7 +1189,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -643,7 +1209,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -663,7 +1229,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -684,8 +1250,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -693,19 +1259,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -713,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -721,7 +1288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -729,7 +1296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -737,7 +1304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -745,7 +1312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -753,7 +1320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -761,7 +1328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -769,7 +1336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -777,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -785,7 +1352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -794,8 +1361,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -803,53 +1370,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFF79E2-94F9-44E0-AF58-2DD7487401E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/LoadingStep.xlsx
+++ b/Assets/Configs/RawTable/LoadingStep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingStep" sheetId="1" r:id="rId1"/>
@@ -66,34 +66,34 @@
     <t>TipID</t>
   </si>
   <si>
-    <t>测试加载中Tip1</t>
-  </si>
-  <si>
-    <t>测试加载中Tip2</t>
-  </si>
-  <si>
-    <t>测试加载中Tip3</t>
-  </si>
-  <si>
-    <t>测试加载中Tip4</t>
-  </si>
-  <si>
-    <t>测试加载中Tip5</t>
-  </si>
-  <si>
-    <t>测试加载中Tip6</t>
-  </si>
-  <si>
-    <t>测试加载中Tip7</t>
-  </si>
-  <si>
-    <t>测试加载中Tip8</t>
-  </si>
-  <si>
-    <t>测试加载中Tip9</t>
-  </si>
-  <si>
-    <t>测试加载中Tip10</t>
+    <t>宋代的农业、手工业、城市商业的发展都出现繁荣的局面，海外贸易不断拓展。</t>
+  </si>
+  <si>
+    <t>两宋时期取得最大成就就是创建中国封建社会后期新的儒学体系——理学。</t>
+  </si>
+  <si>
+    <t>宋朝绘画不仅仅是追求技术，更追求画中意境，少了矫饰之气，多了份自然平和。</t>
+  </si>
+  <si>
+    <t>华夏民族之文化，历数千载之演进，造极于赵宋之世。</t>
+  </si>
+  <si>
+    <t>“宋代”如今已不再只是朝代的名称，而演变成了艺术史中一个独特的美学符号。</t>
+  </si>
+  <si>
+    <t>时光飞逝已千年，苏轼给杭州留下的文化和精神财富却越来越显现出它的价值。</t>
+  </si>
+  <si>
+    <t>水光潋滟晴方好，山色空蒙雨亦奇。欲把西湖比西子，淡妆浓抹总相宜。</t>
+  </si>
+  <si>
+    <t>杭州在地理版图上处于东南，是一座有着悠久的人文历史的名城。</t>
+  </si>
+  <si>
+    <t>乱花渐欲迷人眼，浅草才能没马蹄。最爱湖东行不足，绿杨阴里白沙堤。</t>
+  </si>
+  <si>
+    <t>一叶舟轻，双桨鸿惊。水天清、影湛波平。鱼翻藻鉴，鹭点烟汀。过沙溪急，霜溪冷，月溪明。</t>
   </si>
   <si>
     <t>PicID</t>
@@ -1263,13 +1263,13 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="86.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1374,7 +1374,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Configs/RawTable/LoadingStep.xlsx
+++ b/Assets/Configs/RawTable/LoadingStep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingStep" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <t>PicID</t>
   </si>
   <si>
-    <t>宋 · 清明上河图</t>
+    <t>宋 · 千里江山图</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1263,7 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1374,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>
